--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_summary_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Modelo</t>
   </si>
@@ -34,37 +34,31 @@
     <t>AV-MCPS</t>
   </si>
   <si>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>Block Bootstrapping</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
     <t>EnCQR-LSTM</t>
   </si>
   <si>
+    <t>LSPM</t>
+  </si>
+  <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>MCPS</t>
   </si>
   <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
-    <t>LSPM</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>Block Bootstrapping</t>
-  </si>
-  <si>
     <t>Sieve Bootstrap</t>
   </si>
   <si>
-    <t>3/10</t>
-  </si>
-  <si>
     <t>2/10</t>
-  </si>
-  <si>
-    <t>1/10</t>
   </si>
   <si>
     <t>0/10</t>
@@ -456,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>76.8</v>
+        <v>51.2</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -473,13 +467,13 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>200</v>
       </c>
       <c r="E3">
-        <v>0.7455005416948234</v>
+        <v>0.8984584051239372</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -487,16 +481,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>0.5563497495819119</v>
+        <v>0.8852453440893463</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -504,10 +498,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -521,16 +515,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
       <c r="E6">
-        <v>0.7325737118421308</v>
+        <v>0.7455005416948234</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -538,16 +532,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7">
-        <v>0.7557604602926938</v>
+        <v>0.7325737118421308</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -555,7 +549,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -564,7 +558,7 @@
         <v>200</v>
       </c>
       <c r="E8">
-        <v>0.8984584051239372</v>
+        <v>0.7557604602926938</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -572,16 +566,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9">
-        <v>0.8852453440893463</v>
+        <v>0.5563497495819119</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -589,7 +583,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0</v>
